--- a/ProjectEcommerce/src/main/resources/testData.xlsx
+++ b/ProjectEcommerce/src/main/resources/testData.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15735" windowHeight="3705" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="UserCredentials" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="MobilePgeTCs" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1:M10"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>User name</t>
   </si>
@@ -28,12 +29,31 @@
   </si>
   <si>
     <t>abc@123</t>
+  </si>
+  <si>
+    <t>Test Case</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Sort mobile by name</t>
+  </si>
+  <si>
+    <t>Add to compare check</t>
+  </si>
+  <si>
+    <t>compare page header check</t>
+  </si>
+  <si>
+    <t>pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -381,12 +401,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -416,12 +436,48 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B4:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.42578125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:3">
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/ProjectEcommerce/src/main/resources/testData.xlsx
+++ b/ProjectEcommerce/src/main/resources/testData.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15735" windowHeight="3705" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="UserCredentials" sheetId="1" r:id="rId1"/>
-    <sheet name="MobilePgeTCs" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="HomePageTCs" sheetId="2" r:id="rId2"/>
+    <sheet name="MobilePageTCs" sheetId="3" r:id="rId3"/>
+    <sheet name="CartPageTCs" sheetId="4" r:id="rId4"/>
+    <sheet name="LoginPageTCs" sheetId="5" r:id="rId5"/>
+    <sheet name="AccountPageTCs" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:M10"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="55">
   <si>
     <t>User name</t>
   </si>
@@ -28,32 +30,166 @@
     <t>abcz@email.com</t>
   </si>
   <si>
+    <t>Test Case</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Test Steps</t>
+  </si>
+  <si>
+    <t>Sr no</t>
+  </si>
+  <si>
+    <t>Test data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check home page title. </t>
+  </si>
+  <si>
+    <t>(4,5)</t>
+  </si>
+  <si>
+    <t>(5,5)</t>
+  </si>
+  <si>
+    <t>Click on Mobile Link and verify page title .</t>
+  </si>
+  <si>
+    <t>Click on Account and verify all items.</t>
+  </si>
+  <si>
+    <t>(6,5)</t>
+  </si>
+  <si>
+    <t>(7,5)</t>
+  </si>
+  <si>
+    <t>(8,5)</t>
+  </si>
+  <si>
+    <t>Click on empty cart and verify message.</t>
+  </si>
+  <si>
+    <t>Remove item from cart and get successful removal message.</t>
+  </si>
+  <si>
+    <t>Items sort by name.</t>
+  </si>
+  <si>
+    <t>Check add to compare is working correctly.</t>
+  </si>
+  <si>
+    <t>Test compare page header.</t>
+  </si>
+  <si>
+    <t>Verify mobile price.</t>
+  </si>
+  <si>
+    <t>company logo redirecting to home page.</t>
+  </si>
+  <si>
+    <t>Test maximum quantity error message.</t>
+  </si>
+  <si>
+    <t>Test empty cart message.</t>
+  </si>
+  <si>
+    <t>Item removal from cart.</t>
+  </si>
+  <si>
+    <t>Continue shopping option is working properly.</t>
+  </si>
+  <si>
+    <t>Apply discount code.</t>
+  </si>
+  <si>
+    <t>(2,6)</t>
+  </si>
+  <si>
+    <t>(3,6)</t>
+  </si>
+  <si>
+    <t>(4,6)</t>
+  </si>
+  <si>
+    <t>(5,6)</t>
+  </si>
+  <si>
+    <t>(6,6)</t>
+  </si>
+  <si>
+    <t>login with only username and get error message.</t>
+  </si>
+  <si>
+    <t>login with only password and get error message.</t>
+  </si>
+  <si>
+    <t>login with valid credentials.</t>
+  </si>
+  <si>
+    <t>create new account.</t>
+  </si>
+  <si>
+    <t>checking forget password link.</t>
+  </si>
+  <si>
+    <t>(7,6)</t>
+  </si>
+  <si>
+    <t>test wishlist share.</t>
+  </si>
+  <si>
+    <t>test total price.</t>
+  </si>
+  <si>
+    <t>test successful order placing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Successful logout </t>
+  </si>
+  <si>
+    <t>Change password</t>
+  </si>
+  <si>
+    <t>Create new  User</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>demo</t>
+  </si>
+  <si>
+    <t>mno</t>
+  </si>
+  <si>
+    <t>mnok@email.com</t>
+  </si>
+  <si>
+    <t>mno@123</t>
+  </si>
+  <si>
+    <t>new password</t>
+  </si>
+  <si>
+    <t>pqr@123</t>
+  </si>
+  <si>
     <t>abc@123</t>
-  </si>
-  <si>
-    <t>Test Case</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>Sort mobile by name</t>
-  </si>
-  <si>
-    <t>Add to compare check</t>
-  </si>
-  <si>
-    <t>compare page header check</t>
-  </si>
-  <si>
-    <t>pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -70,7 +206,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -80,6 +216,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -100,10 +248,18 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -399,36 +555,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
+      <c r="B2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="C6" r:id="rId3"/>
+    <hyperlink ref="D6" r:id="rId4"/>
+    <hyperlink ref="C2" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -436,45 +638,91 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B4:C9"/>
+  <dimension ref="B4:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="30.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="35.42578125" customWidth="1"/>
+    <col min="4" max="4" width="51.140625" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:6">
       <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="30">
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="30">
+      <c r="B9">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9" t="s">
-        <v>8</v>
+      <c r="C9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -484,12 +732,376 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B4:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" customWidth="1"/>
+    <col min="4" max="4" width="51.140625" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:6">
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="30">
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="4">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="4">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="30">
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C4:G9"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="36.140625" customWidth="1"/>
+    <col min="5" max="5" width="50.140625" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:7">
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7">
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7">
+      <c r="C6" s="4">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7">
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" ht="30">
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7">
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C3:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
+    <col min="5" max="5" width="57" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:7">
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7" ht="30">
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" ht="30">
+      <c r="C5" s="4">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7">
+      <c r="C6" s="4">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7">
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7">
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C3:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
+    <col min="5" max="5" width="50.85546875" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:7">
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7">
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7">
+      <c r="C5" s="4">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7">
+      <c r="C6" s="4">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7">
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7">
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ProjectEcommerce/src/main/resources/testData.xlsx
+++ b/ProjectEcommerce/src/main/resources/testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="16260" windowHeight="3705" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="UserCredentials" sheetId="1" r:id="rId1"/>
@@ -15,11 +15,12 @@
     <sheet name="AccountPageTCs" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1:F8"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="56">
   <si>
     <t>User name</t>
   </si>
@@ -105,9 +106,6 @@
     <t>Apply discount code.</t>
   </si>
   <si>
-    <t>(2,6)</t>
-  </si>
-  <si>
     <t>(3,6)</t>
   </si>
   <si>
@@ -184,6 +182,12 @@
   </si>
   <si>
     <t>abc@123</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>pass</t>
   </si>
 </sst>
 </file>
@@ -557,16 +561,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -577,7 +581,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -585,26 +589,26 @@
         <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>1</v>
@@ -612,16 +616,16 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
         <v>48</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -640,17 +644,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:F9"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="35.42578125" customWidth="1"/>
-    <col min="4" max="4" width="51.140625" customWidth="1"/>
-    <col min="5" max="5" width="33.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="35.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="51.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="33.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:6">
@@ -678,7 +682,7 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="30">
@@ -689,7 +693,7 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="2:6">
@@ -700,7 +704,7 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="2:6">
@@ -711,7 +715,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="30">
@@ -722,7 +726,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -740,11 +744,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="33.140625" customWidth="1"/>
-    <col min="4" max="4" width="51.140625" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="51.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:6">
@@ -828,17 +832,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C4:G9"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="36.140625" customWidth="1"/>
-    <col min="5" max="5" width="50.140625" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="36.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="50.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:7">
@@ -866,7 +870,7 @@
         <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="3:7">
@@ -877,7 +881,7 @@
         <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="3:7">
@@ -888,7 +892,7 @@
         <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="3:7" ht="30">
@@ -899,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="3:7">
@@ -910,7 +914,7 @@
         <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -922,17 +926,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C3:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="57" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="32" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="57" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:7">
@@ -957,10 +961,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="3:7" ht="30">
@@ -968,10 +972,10 @@
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="3:7">
@@ -979,10 +983,10 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="3:7">
@@ -990,10 +994,10 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="3:7">
@@ -1001,10 +1005,10 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1022,11 +1026,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" customWidth="1"/>
-    <col min="5" max="5" width="50.85546875" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="50.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:7">
@@ -1051,10 +1055,10 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="3:7">
@@ -1062,10 +1066,10 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="3:7">
@@ -1073,10 +1077,10 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="3:7">
@@ -1084,10 +1088,10 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="3:7">
@@ -1095,10 +1099,10 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectEcommerce/src/main/resources/testData.xlsx
+++ b/ProjectEcommerce/src/main/resources/testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="16260" windowHeight="3705" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="UserCredentials" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,11 @@
     <sheet name="AccountPageTCs" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:F8"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="88">
   <si>
     <t>User name</t>
   </si>
@@ -34,39 +33,18 @@
     <t>Test Case</t>
   </si>
   <si>
-    <t>Result</t>
-  </si>
-  <si>
     <t>Test Steps</t>
   </si>
   <si>
     <t>Sr no</t>
   </si>
   <si>
-    <t>Test data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check home page title. </t>
-  </si>
-  <si>
-    <t>(4,5)</t>
-  </si>
-  <si>
-    <t>(5,5)</t>
-  </si>
-  <si>
     <t>Click on Mobile Link and verify page title .</t>
   </si>
   <si>
     <t>Click on Account and verify all items.</t>
   </si>
   <si>
-    <t>(6,5)</t>
-  </si>
-  <si>
-    <t>(7,5)</t>
-  </si>
-  <si>
     <t>(8,5)</t>
   </si>
   <si>
@@ -106,18 +84,6 @@
     <t>Apply discount code.</t>
   </si>
   <si>
-    <t>(3,6)</t>
-  </si>
-  <si>
-    <t>(4,6)</t>
-  </si>
-  <si>
-    <t>(5,6)</t>
-  </si>
-  <si>
-    <t>(6,6)</t>
-  </si>
-  <si>
     <t>login with only username and get error message.</t>
   </si>
   <si>
@@ -130,12 +96,6 @@
     <t>create new account.</t>
   </si>
   <si>
-    <t>checking forget password link.</t>
-  </si>
-  <si>
-    <t>(7,6)</t>
-  </si>
-  <si>
     <t>test wishlist share.</t>
   </si>
   <si>
@@ -181,13 +141,148 @@
     <t>pqr@123</t>
   </si>
   <si>
-    <t>abc@123</t>
-  </si>
-  <si>
-    <t>fail</t>
-  </si>
-  <si>
-    <t>pass</t>
+    <t xml:space="preserve">1.Launch URL.                                                                                          2.Click on MOBILE.                                                                                                   3.Check MOBILE page title. </t>
+  </si>
+  <si>
+    <t>1.Launch URL.                                                                                          2.Click on ACCOUNT.                                                                                                   3. Verify all items</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Launch URL.                                                                                        2.Verify empty cart  message.                                                                                  </t>
+  </si>
+  <si>
+    <t>1.Launch URL.                                                                                          2.Add item to cart.                                                                                          3.Remove that item from cart.                                                        4. Verify successful removal message.</t>
+  </si>
+  <si>
+    <t>1.Launch URL.                                                                                          2.Click on MOBILE.                                                                                                   3.Sort items by Name.                                                                      4.Verify sorting order.</t>
+  </si>
+  <si>
+    <t>1.Launch URL.                                                                                          2.Click on MOBILE.                                                                                                   3.Click Add to compare for two items.                                                                4.Click on compare button.                                                              5.Verify popup window header.</t>
+  </si>
+  <si>
+    <t>1.Launch URL.                                                                                          2.Click on MOBILE.                                                                                                   3.Click Add to compare for two items.                                                                4.Click on compare button.                                                              5.Verify popup window and check the products are reflected or not.                                                                                    6.Close the popup window.</t>
+  </si>
+  <si>
+    <t>1.Launch URL.                                                                                          2.Click on MOBILE.                                                                                                   3.Click on Logo and check it is going back to home page.</t>
+  </si>
+  <si>
+    <t>1.Launch URL.                                                                                          2.Click on MOBILE.                                                                                                   3.Click on any mobile item and verify it's price.</t>
+  </si>
+  <si>
+    <t>1.Launch URL.                                                                                          2.Click on MOBILE.                                                                                                   3.Click Add to cart for sony Xperia mobile.                                                                4.Change quantity to 1000 and click UPDATE button.                                                    5.Verify error message.</t>
+  </si>
+  <si>
+    <t>1.Launch URL.                                                                                          2.Click on MOBILE.                                                                                                   3.Click Add to cart for sony Xperia mobile.                                                                4.Click on item removal icon to remove mobile.                 5.Verify item is removed or not.</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Pass/Fail/skipped</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check home page Heading. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Launch URL.                                                                            2.Check home page heading. </t>
+  </si>
+  <si>
+    <t>"You have no items in your shopping cart" message will come.</t>
+  </si>
+  <si>
+    <t>Home page header will be "THIS IS DEMO SITE".</t>
+  </si>
+  <si>
+    <t>"My Account", "My Wishlist", "My Cart", "Checkout", "Register","Log In" .</t>
+  </si>
+  <si>
+    <t>Page title will be "Mobile".</t>
+  </si>
+  <si>
+    <t>"Item was removed successfully" message will come.</t>
+  </si>
+  <si>
+    <t>Items will be sorted by name.</t>
+  </si>
+  <si>
+    <t>Page header will be "COMPARE PRODUCTS".</t>
+  </si>
+  <si>
+    <t>1.Both items will be visible in compare list.     2.popup window should be closed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Launch URL.                                                                                          2.Click on MOBILE.                                                                                                   3.Click Add to cart for sony Xperia mobile.                             4.Enter Discount Code and Click Apply.                                    </t>
+  </si>
+  <si>
+    <t>"Coupon code xyz" was applied " will be displayed.</t>
+  </si>
+  <si>
+    <t>"The maximum quantity allowed for purchase is 500" error message will come.</t>
+  </si>
+  <si>
+    <t>1.Launch URL.                                                                                          2.Click on MOBILE.                                                                                                   3.Click Add to cart for sony Xperia mobile.                  4.Click on Empty cart link.                                                              5.Verify empty cart message.</t>
+  </si>
+  <si>
+    <t>"SHOPPING CART IS EMPTY" message will come.</t>
+  </si>
+  <si>
+    <t>Item should be removed from cart.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Launch URL.                                                                                          2.Click on MOBILE.                                                                                                   3.Click Add to cart for sony Xperia mobile.                            4.Click on continue shopping link.     </t>
+  </si>
+  <si>
+    <t>After clicking continue shopping MOBILE page should come.</t>
+  </si>
+  <si>
+    <t>1.Launch URL.                                                                                                       2.Click on ACCOUNT &gt; Log In                                                                         3.Enter username and click Login button.</t>
+  </si>
+  <si>
+    <t>Login will fail and "This is a required field" error msg will come.</t>
+  </si>
+  <si>
+    <t>1.Launch URL.                                                                                                       2.Click on ACCOUNT &gt; Log In                                                                         3.Enter password and click Login button.</t>
+  </si>
+  <si>
+    <t>Login successful and welcome msg come.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Launch URL.                                                                                                       2.Click on ACCOUNT &gt; Log In                                                                         3.Enter valid username,  password and click Login button.           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Launch URL.                                                                                                       2.Click on ACCOUNT &gt; Log In                                                                         3.Enter valid username,  password and click Login button.              4.Click on ACCOUNT &gt; Log out.            </t>
+  </si>
+  <si>
+    <t>Logout successful and "You are now logged out" msg will come.</t>
+  </si>
+  <si>
+    <t>1.Launch URL.                                                                                                       2.Click on ACCOUNT &gt; Log In                                                                         3.Click on Create an account and give details.                                       4.Click Register.</t>
+  </si>
+  <si>
+    <t>Account created Successfully.</t>
+  </si>
+  <si>
+    <t>1.Launch URL.                                                                                                       2.Click on ACCOUNT &gt; Log In                                                                         3.Enter valid username,  password and click Login button.         4.Click on Wish list link.                                                                   5.Click on share wishlist.                                                                 6.Enter email id, msg and click on share wish list</t>
+  </si>
+  <si>
+    <t>"Your Wishlist has been shared" message will come.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Launch URL.                                                                                                       2.Click on ACCOUNT &gt; Log In                                                                         3.Enter valid username,  password and click Login.            4.Click on Mobile and add an item to cart.                                                                   5.Change quantity and check the total price. </t>
+  </si>
+  <si>
+    <t>1.Launch URL.                                                                                                       2.Click on ACCOUNT &gt; Log In                                                                         3.Enter valid username,  password and click Login.            4.Click on Mobile and add an item to cart.                                                                   5.Change quantity and check the total price.                          6.Click on Proceed to checkout button.                                      7.Give shipping address and payment details.                         8.Click on place order.</t>
+  </si>
+  <si>
+    <t>"Your order has been received" msg will come.</t>
+  </si>
+  <si>
+    <t>Total Price calculation should be correct.</t>
+  </si>
+  <si>
+    <t>1.Launch URL.                                                                                                       2.Click on ACCOUNT &gt; Log In                                                                         3.Enter valid username,  password and click Login.              4.Click on Change password.                                                          5.Enter current password, New password and confirm password.                                                                                              6.Click on save.</t>
+  </si>
+  <si>
+    <t>Password should be changed successfully.</t>
   </si>
 </sst>
 </file>
@@ -252,7 +347,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -261,8 +356,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -567,10 +665,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -581,34 +679,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>52</v>
+      <c r="B2" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>1</v>
@@ -616,25 +711,24 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="5" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="C6" r:id="rId3"/>
-    <hyperlink ref="D6" r:id="rId4"/>
-    <hyperlink ref="C2" r:id="rId5"/>
+    <hyperlink ref="C6" r:id="rId2"/>
+    <hyperlink ref="D6" r:id="rId3"/>
+    <hyperlink ref="B2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -644,89 +738,104 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:F9"/>
   <sheetViews>
-    <sheetView topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="35.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="51.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="33.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="35.42578125" customWidth="1"/>
+    <col min="4" max="4" width="51.140625" customWidth="1"/>
+    <col min="5" max="5" width="37" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:6">
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6">
+        <v>51</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="30">
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>55</v>
+        <v>53</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="30">
       <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
-      <c r="B7">
+    <row r="7" spans="2:6" ht="45">
+      <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="45">
+      <c r="B8" s="4">
         <v>4</v>
       </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="30">
-      <c r="B9">
+      <c r="C8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="60">
+      <c r="B9" s="4">
         <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>55</v>
+        <v>10</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -739,88 +848,100 @@
   <dimension ref="B4:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="51.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" customWidth="1"/>
+    <col min="4" max="4" width="51.140625" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:6">
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6">
+        <v>51</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="60">
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="30">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="75">
       <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6">
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="105">
       <c r="B7" s="4">
         <v>3</v>
       </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6">
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="45">
       <c r="B8" s="4">
         <v>4</v>
       </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="45">
+      <c r="B9" s="4">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" ht="30">
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>22</v>
+      <c r="D9" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -832,89 +953,105 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C4:G9"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="36.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="50.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="36.140625" customWidth="1"/>
+    <col min="5" max="5" width="50.140625" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:7">
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="3:7">
+        <v>51</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" ht="60">
       <c r="C5" s="4">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="3:7">
+        <v>20</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="3:7" ht="75">
       <c r="C6" s="4">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7">
-      <c r="C7">
+        <v>16</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" ht="75">
+      <c r="C7" s="4">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7" ht="30">
-      <c r="C8">
+        <v>18</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" ht="75">
+      <c r="C8" s="4">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="3:7">
-      <c r="C9">
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" ht="60">
+      <c r="C9" s="4">
         <v>5</v>
       </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" t="s">
-        <v>55</v>
+      <c r="D9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -926,89 +1063,104 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C3:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="57" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
+    <col min="5" max="5" width="57" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:7">
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="3:7" ht="30">
+        <v>51</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7" ht="45">
       <c r="C4" s="4">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="3:7" ht="30">
+        <v>21</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" ht="45">
       <c r="C5" s="4">
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="3:7">
+        <v>22</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" ht="45">
       <c r="C6" s="4">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7">
-      <c r="C7">
+        <v>23</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" ht="60">
+      <c r="C7" s="4">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7">
-      <c r="C8">
+        <v>28</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" ht="60">
+      <c r="C8" s="4">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" t="s">
-        <v>37</v>
+        <v>24</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1018,91 +1170,92 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C3:G8"/>
+  <dimension ref="C3:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="26.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="50.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
+    <col min="5" max="5" width="50.85546875" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:7">
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="3:7">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7" ht="90">
       <c r="C4" s="4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="3:7">
+        <v>25</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" ht="75">
       <c r="C5" s="4">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="3:7">
+        <v>26</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" ht="120">
       <c r="C6" s="4">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7">
-      <c r="C7">
+        <v>27</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" ht="105">
+      <c r="C7" s="4">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7">
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" t="s">
-        <v>37</v>
+        <v>29</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectEcommerce/src/main/resources/testData.xlsx
+++ b/ProjectEcommerce/src/main/resources/testData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="90">
   <si>
     <t>User name</t>
   </si>
@@ -283,12 +283,19 @@
   </si>
   <si>
     <t>Password should be changed successfully.</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>fail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -665,10 +672,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -744,11 +751,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="35.42578125" customWidth="1"/>
-    <col min="4" max="4" width="51.140625" customWidth="1"/>
-    <col min="5" max="5" width="37" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="35.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="51.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="37.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:6">
@@ -781,6 +788,9 @@
       <c r="E5" s="3" t="s">
         <v>56</v>
       </c>
+      <c r="F5" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="6" spans="2:6" ht="30">
       <c r="B6" s="4">
@@ -795,6 +805,9 @@
       <c r="E6" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="F6" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="7" spans="2:6" ht="45">
       <c r="B7" s="4">
@@ -809,6 +822,9 @@
       <c r="E7" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="F7" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="8" spans="2:6" ht="45">
       <c r="B8" s="4">
@@ -823,6 +839,9 @@
       <c r="E8" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="9" spans="2:6" ht="60">
       <c r="B9" s="4">
@@ -836,6 +855,9 @@
       </c>
       <c r="E9" s="3" t="s">
         <v>59</v>
+      </c>
+      <c r="F9" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -853,11 +875,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="33.140625" customWidth="1"/>
-    <col min="4" max="4" width="51.140625" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="51.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:6">
@@ -959,11 +981,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="36.140625" customWidth="1"/>
-    <col min="5" max="5" width="50.140625" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="36.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="50.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="21.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:7">
@@ -1069,11 +1091,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="57" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="57.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="18.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:7">
@@ -1178,11 +1200,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" customWidth="1"/>
-    <col min="5" max="5" width="50.85546875" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="50.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:7">

--- a/ProjectEcommerce/src/main/resources/testData.xlsx
+++ b/ProjectEcommerce/src/main/resources/testData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="90">
   <si>
     <t>User name</t>
   </si>
@@ -912,6 +912,9 @@
       <c r="E5" s="3" t="s">
         <v>60</v>
       </c>
+      <c r="F5" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="6" spans="2:6" ht="75">
       <c r="B6" s="4">
@@ -940,6 +943,9 @@
       <c r="E7" s="3" t="s">
         <v>62</v>
       </c>
+      <c r="F7" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="8" spans="2:6" ht="45">
       <c r="B8" s="4">
@@ -951,6 +957,9 @@
       <c r="D8" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="9" spans="2:6" ht="45">
       <c r="B9" s="4">
@@ -963,7 +972,7 @@
         <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1018,7 +1027,9 @@
       <c r="F5" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G5" s="5"/>
+      <c r="G5" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="6" spans="3:7" ht="75">
       <c r="C6" s="4">
@@ -1033,6 +1044,9 @@
       <c r="F6" s="3" t="s">
         <v>65</v>
       </c>
+      <c r="G6" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="7" spans="3:7" ht="75">
       <c r="C7" s="4">
@@ -1047,6 +1061,9 @@
       <c r="F7" s="3" t="s">
         <v>68</v>
       </c>
+      <c r="G7" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="8" spans="3:7" ht="75">
       <c r="C8" s="4">
@@ -1061,6 +1078,9 @@
       <c r="F8" s="3" t="s">
         <v>67</v>
       </c>
+      <c r="G8" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="9" spans="3:7" ht="60">
       <c r="C9" s="4">
@@ -1074,6 +1094,9 @@
       </c>
       <c r="F9" s="3" t="s">
         <v>70</v>
+      </c>
+      <c r="G9" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1128,6 +1151,9 @@
       <c r="F4" s="3" t="s">
         <v>72</v>
       </c>
+      <c r="G4" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="5" spans="3:7" ht="45">
       <c r="C5" s="4">
@@ -1142,6 +1168,9 @@
       <c r="F5" s="3" t="s">
         <v>72</v>
       </c>
+      <c r="G5" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="6" spans="3:7" ht="45">
       <c r="C6" s="4">
@@ -1156,6 +1185,9 @@
       <c r="F6" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="G6" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="7" spans="3:7" ht="60">
       <c r="C7" s="4">
@@ -1169,6 +1201,9 @@
       </c>
       <c r="F7" s="3" t="s">
         <v>77</v>
+      </c>
+      <c r="G7" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="3:7" ht="60">
@@ -1237,6 +1272,9 @@
       <c r="F4" s="3" t="s">
         <v>81</v>
       </c>
+      <c r="G4" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="5" spans="3:7" ht="75">
       <c r="C5" s="4">
@@ -1251,6 +1289,9 @@
       <c r="F5" s="3" t="s">
         <v>85</v>
       </c>
+      <c r="G5" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="6" spans="3:7" ht="120">
       <c r="C6" s="4">
@@ -1264,6 +1305,9 @@
       </c>
       <c r="F6" s="3" t="s">
         <v>84</v>
+      </c>
+      <c r="G6" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="3:7" ht="105">

--- a/ProjectEcommerce/src/main/resources/testData.xlsx
+++ b/ProjectEcommerce/src/main/resources/testData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="90">
   <si>
     <t>User name</t>
   </si>
